--- a/documents/Agendas/201401 WGM FHIR Agenda.xlsx
+++ b/documents/Agendas/201401 WGM FHIR Agenda.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>Sat</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>InM + ITS</t>
+  </si>
+  <si>
+    <t>Anthony Mallia</t>
+  </si>
+  <si>
+    <t>.NET Lunch</t>
   </si>
 </sst>
 </file>
@@ -561,13 +567,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,19 +931,11 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,16 +943,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -965,16 +963,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -982,22 +980,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1005,13 +1003,19 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,13 +1023,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,27 +1037,27 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1075,13 +1079,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,13 +1093,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,41 +1107,41 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,15 +1149,43 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
     </row>
